--- a/Articles/TM-Tracking.xlsx
+++ b/Articles/TM-Tracking.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/v-bstephen_microsoft_com/Documents/IC2LR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PeerThreatModel\Articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{6EFD8E9A-6DB7-48D7-9F06-B561CC561E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{539AE784-CEFD-45CB-B260-984FB556E987}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F43C65-64F3-491C-81F2-7E772E4AFCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56040" yWindow="3000" windowWidth="22680" windowHeight="15135" activeTab="1" xr2:uid="{92A4B5B2-54AA-4073-9DC1-65C9E14AFC6B}"/>
+    <workbookView xWindow="39600" yWindow="1840" windowWidth="32230" windowHeight="16580" activeTab="2" xr2:uid="{92A4B5B2-54AA-4073-9DC1-65C9E14AFC6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="TM Program Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="Threat Model Review" sheetId="2" r:id="rId2"/>
+    <sheet name="Introduction" sheetId="3" r:id="rId1"/>
+    <sheet name="TM Program Tracker" sheetId="1" r:id="rId2"/>
+    <sheet name="Threat Model Review" sheetId="2" r:id="rId3"/>
+    <sheet name="DropDown" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
   <si>
     <t>Start Date</t>
   </si>
@@ -96,9 +98,6 @@
     <t>Information Security</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
     <t>Review ID</t>
   </si>
   <si>
@@ -117,33 +116,18 @@
     <t>Requestor Information</t>
   </si>
   <si>
-    <t>Questionnaire</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
     <t>Review Status</t>
   </si>
   <si>
-    <t>Time Spent (min)</t>
-  </si>
-  <si>
     <t>Task Impact</t>
   </si>
   <si>
-    <t>Review Completion Date</t>
-  </si>
-  <si>
     <t>Threat Model Reviewer</t>
   </si>
   <si>
     <t>Tony Danza</t>
   </si>
   <si>
-    <t>TD@company.com</t>
-  </si>
-  <si>
     <t>509-123-4567</t>
   </si>
   <si>
@@ -177,9 +161,6 @@
     <t>Abandoned</t>
   </si>
   <si>
-    <t>Not Completed</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -189,19 +170,339 @@
     <t>High</t>
   </si>
   <si>
-    <t>TLS 1.2+ update TLS version</t>
-  </si>
-  <si>
     <t>Establish Key rotation plan</t>
   </si>
   <si>
     <t>Consider enforcing MFA</t>
   </si>
   <si>
-    <t>Blocker, must be completed before signoff</t>
-  </si>
-  <si>
-    <t>Can be implemented by next review date</t>
+    <t>TD@contoso.com</t>
+  </si>
+  <si>
+    <t>509-123-4568</t>
+  </si>
+  <si>
+    <t>Bill Han</t>
+  </si>
+  <si>
+    <t>BH@contoso.com</t>
+  </si>
+  <si>
+    <t>Web Service</t>
+  </si>
+  <si>
+    <t>1234-5368-9012-3657</t>
+  </si>
+  <si>
+    <t>TD-16Apr24</t>
+  </si>
+  <si>
+    <t>Repair Completion Date</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>STRIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSL unsecure - replace and use TLS 1.2+ </t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Web Traffic is not logged correctly</t>
+  </si>
+  <si>
+    <t>Bill Jon</t>
+  </si>
+  <si>
+    <t>Web App Dev 2</t>
+  </si>
+  <si>
+    <t>Web Team</t>
+  </si>
+  <si>
+    <t>Will Four</t>
+  </si>
+  <si>
+    <t>Sr PM</t>
+  </si>
+  <si>
+    <t>John Fred</t>
+  </si>
+  <si>
+    <t>Director of Development</t>
+  </si>
+  <si>
+    <t>Mitigation</t>
+  </si>
+  <si>
+    <t>SSL unsecure</t>
+  </si>
+  <si>
+    <t>Keys are not rotated</t>
+  </si>
+  <si>
+    <t>Webserver not protected from DDOS</t>
+  </si>
+  <si>
+    <t>Enable Firewall, and or DDOS protection gateway</t>
+  </si>
+  <si>
+    <t>User management can lead to innapropriate Elevation of Privlidge EOP</t>
+  </si>
+  <si>
+    <t>Implement RBAC and only use least privlidge to end points</t>
+  </si>
+  <si>
+    <t>Log all web traffic following OWASP guidance</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>2. Threat Model Review Tracking</t>
+  </si>
+  <si>
+    <t>Why Threat Model Reviews?</t>
+  </si>
+  <si>
+    <t>Threat modeling helps identify vulnerabilities and potential risks in your systems. By tracking threat model reviews, you can:</t>
+  </si>
+  <si>
+    <t>How to Use the Sample XLS File: Threat Model Review Tracker</t>
+  </si>
+  <si>
+    <t>Gather information from security assessments, penetration tests, or other sources.</t>
+  </si>
+  <si>
+    <t>Include details like system components, identified threats, and risk levels.</t>
+  </si>
+  <si>
+    <t>After each review, update the XLS file with new findings.</t>
+  </si>
+  <si>
+    <t>Use color-coding to highlight critical threats.</t>
+  </si>
+  <si>
+    <t>Leverage the provided Power BI dashboard to visualize trends and insights.</t>
+  </si>
+  <si>
+    <t>Connect your XLS file to Power BI for real-time reporting.</t>
+  </si>
+  <si>
+    <t>Remember, this sample XLS file is for educational purposes. Feel free to adapt it to your specific needs, and always prioritize security and training excellence.</t>
+  </si>
+  <si>
+    <t>Risk Level</t>
+  </si>
+  <si>
+    <t>Mitigate Risks: Address security weaknesses promptly.</t>
+  </si>
+  <si>
+    <t>Ensure Compliance: Align with industry standards.</t>
+  </si>
+  <si>
+    <t>Improve Security Posture: Continuously enhance defenses.</t>
+  </si>
+  <si>
+    <t>Access the Threat Model Review Data:</t>
+  </si>
+  <si>
+    <t>System/Project Name: Specify the system or project being reviewed.</t>
+  </si>
+  <si>
+    <t>Threats: List identified threats (e.g., Spoofing, Tampering, etc.).</t>
+  </si>
+  <si>
+    <t>Risk Level: Assess the severity of each threat.</t>
+  </si>
+  <si>
+    <t>Mitigation: Recommendation on how the Threat can be repaired</t>
+  </si>
+  <si>
+    <t>Regular Updates:</t>
+  </si>
+  <si>
+    <t>Power BI Integration:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Introduction to TM Program Tracker and Threat Model Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. User Training Progress Tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Why Track Employee Training?
+Employee training programs are valuable investments. They enhance skills, boost productivity, and contribute to overall business success. By tracking training progress, you can:
+Measure Effectiveness: Understand how well your training programs are working.
+Identify Trends: Spot patterns and areas for improvement.
+Employee Name: List the names of trainees.
+Training Modules: Specify the training topics.
+Completion Date: Record when each module is completed.
+Update Regularly:
+As employees complete training, enter the relevant data.
+Use conditional formatting to highlight completed modules.
+Analyze Metrics:
+Total training hours.
+Training program effectiveness.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF111111"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>poofing: Refers to an attacker impersonating a legitimate user or system.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF111111"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>ampering: Involves unauthorized modification of data or system components.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF111111"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>epudiation: Occurs when an entity denies performing a specific action.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF111111"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>nformation Disclosure: Refers to unintentional exposure of sensitive information.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF111111"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>enial of Service: Involves disrupting system availability or functionality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF111111"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>levation of Privilege: Describes unauthorized escalation of user privileges.</t>
+    </r>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Occurs when an entity denies performing a specific action.</t>
+  </si>
+  <si>
+    <t>Refers to unintentional exposure of sensitive information.</t>
+  </si>
+  <si>
+    <t>MFA not enabled</t>
+  </si>
+  <si>
+    <t>Involves disrupting system availability or functionality.</t>
+  </si>
+  <si>
+    <t>Describes unauthorized escalation of user privileges.</t>
+  </si>
+  <si>
+    <t>Browser URL can be altered to identify connection details</t>
+  </si>
+  <si>
+    <t>implementing input validation and sanitization to ensure that user-supplied data doesn’t manipulate or compromise the URL</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -211,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +532,31 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF111111"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF111111"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,13 +607,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,7 +632,26 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF111111"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -312,213 +664,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C640FB55-BF9B-4B30-5C9A-9952E27EC144}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8401050" y="2828925"/>
-          <a:ext cx="2914650" cy="1562100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Note:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Example template to capture threat</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> model training.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Column Z has the list for drop down in Program Lifecycle.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36989A5-29A3-3128-BCCC-C52624A6B3DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7839075" y="2095500"/>
-          <a:ext cx="3162300" cy="1704975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Note:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Example</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> for tracking a threat model review</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Lists start at column Z</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36B05495-0F33-41A0-AFEA-D98A31B8FAE5}" name="ProgramLifecycle" displayName="ProgramLifecycle" ref="Z2:Z7" totalsRowShown="0">
-  <autoFilter ref="Z2:Z7" xr:uid="{36B05495-0F33-41A0-AFEA-D98A31B8FAE5}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A4CD715E-DDD4-44B3-898B-045A8D93BF89}" name="Program Lifecycle"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76CF0757-359E-4DAA-9750-F4E3206D0732}" name="Table2" displayName="Table2" ref="A1:L11" totalsRowShown="0">
   <autoFilter ref="A1:L11" xr:uid="{76CF0757-359E-4DAA-9750-F4E3206D0732}"/>
   <tableColumns count="12">
@@ -534,6 +680,47 @@
     <tableColumn id="10" xr3:uid="{F7018707-6B8F-4FA9-8DFE-995D0A6A35E6}" name="Module 5"/>
     <tableColumn id="11" xr3:uid="{F27F3270-BA68-4DE6-94E2-4E18C83F295F}" name="Program Lifecycle"/>
     <tableColumn id="12" xr3:uid="{C282507F-7FC0-454E-BBED-A7EB6913E644}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36B05495-0F33-41A0-AFEA-D98A31B8FAE5}" name="ProgramLifecycle" displayName="ProgramLifecycle" ref="I1:I6" totalsRowShown="0">
+  <autoFilter ref="I1:I6" xr:uid="{36B05495-0F33-41A0-AFEA-D98A31B8FAE5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A4CD715E-DDD4-44B3-898B-045A8D93BF89}" name="Program Lifecycle"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E51660A6-6E9C-47E2-AA7F-1D0BC828FD2E}" name="Table3" displayName="Table3" ref="F1:G7" totalsRowShown="0">
+  <autoFilter ref="F1:G7" xr:uid="{E51660A6-6E9C-47E2-AA7F-1D0BC828FD2E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{98F57992-3228-4863-9163-C8AC053DF2C6}" name="STRIDE"/>
+    <tableColumn id="2" xr3:uid="{DFB8A17E-B3A8-4733-AAD0-4272DC5F7B45}" name="Column1" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{22988167-9943-4412-B003-08CC4840CA96}" name="Table4" displayName="Table4" ref="B1:B6" totalsRowShown="0">
+  <autoFilter ref="B1:B6" xr:uid="{22988167-9943-4412-B003-08CC4840CA96}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F96A64D1-756C-4EBD-A9E9-16A3D6F5EFAE}" name="Review Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CEE41EB1-95E2-41E4-9372-5187FC009A5F}" name="Table6" displayName="Table6" ref="D1:D4" totalsRowShown="0">
+  <autoFilter ref="D1:D4" xr:uid="{CEE41EB1-95E2-41E4-9372-5187FC009A5F}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5E28BF23-F787-4BE8-B1B4-83978816AE8E}" name="Task Impact"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,11 +1042,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1414BE6-CBE3-4498-8DD7-6EE11EC926CF}">
-  <dimension ref="A1:Z7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1AA4F3-0EE2-407A-BFE7-1E707CB4B132}">
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="145.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="279.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1414BE6-CBE3-4498-8DD7-6EE11EC926CF}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -875,7 +1190,7 @@
     <col min="26" max="26" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -913,7 +1228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -945,55 +1260,130 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Z4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Z5" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45324</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Z6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Z7" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45324</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45325</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{A0E1728D-7A9C-47B4-B921-41EE250AD6A2}">
-      <formula1>$Z$3:$Z$7</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="2">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{A0E1728D-7A9C-47B4-B921-41EE250AD6A2}">
+          <x14:formula1>
+            <xm:f>DropDown!$I$2:$I$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB357F1-E8D6-4D00-AA6A-ED4E1697B4A7}">
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1006,233 +1396,545 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.7265625" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6328125" customWidth="1"/>
+    <col min="14" max="14" width="51.90625" customWidth="1"/>
+    <col min="15" max="15" width="42.36328125" customWidth="1"/>
+    <col min="16" max="16" width="36.81640625" customWidth="1"/>
     <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45397</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45397</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45397</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45398</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45398</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45398</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45398</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D4" s="2"/>
-      <c r="K4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D5" s="2"/>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="Z6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="Z7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="Z8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:O1"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H11" xr:uid="{7AFD2EF0-9895-48F5-A958-03CB5EA2A807}">
-      <formula1>$Z$3:$Z$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J12" xr:uid="{0759102C-BAD8-4503-AA36-D19845448554}">
-      <formula1>$AB$3:$AB$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L3:L12" xr:uid="{0D3867A3-1B9A-4DED-B91C-DE298114F941}">
-      <formula1>$AD$3:$AD$6</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A3BB3913-6CAC-478A-AB9F-702842D28084}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{CEB8D2C3-7A33-4885-BD26-57EBDFB701FB}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{DB35A618-C82A-4BE6-9899-AFB79DCD1D7C}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{9F1714F8-518B-497D-870E-224FA37A66DA}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{89EB1DD2-6299-44F4-B7B3-DD24C9EA5926}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{252FC477-4C54-45DE-837E-E484F7C5DA3E}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{0FBF7447-5AC6-4FF2-AAEB-3D0DC48F817A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7AFD2EF0-9895-48F5-A958-03CB5EA2A807}">
+          <x14:formula1>
+            <xm:f>DropDown!$B$1:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{0D3867A3-1B9A-4DED-B91C-DE298114F941}">
+          <x14:formula1>
+            <xm:f>DropDown!$D$1:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>K3:K11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85387C4A-CFE3-4C8A-AE7E-D35CDE85D013}">
+  <dimension ref="B1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="12" max="12" width="24.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+  <clbl:label id="{87ba5c36-b7cf-4793-bbc2-bd5b3a9f95ca}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>
--- a/Articles/TM-Tracking.xlsx
+++ b/Articles/TM-Tracking.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PeerThreatModel\Articles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F43C65-64F3-491C-81F2-7E772E4AFCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E1F23B-70A4-4AFF-B6CC-A31DE0A23CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39600" yWindow="1840" windowWidth="32230" windowHeight="16580" activeTab="2" xr2:uid="{92A4B5B2-54AA-4073-9DC1-65C9E14AFC6B}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="38580" windowHeight="21060" activeTab="2" xr2:uid="{92A4B5B2-54AA-4073-9DC1-65C9E14AFC6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
     <sheet name="TM Program Tracker" sheetId="1" r:id="rId2"/>
     <sheet name="Threat Model Review" sheetId="2" r:id="rId3"/>
-    <sheet name="DropDown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="DropDown" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="342">
   <si>
     <t>Start Date</t>
   </si>
@@ -128,9 +129,6 @@
     <t>Tony Danza</t>
   </si>
   <si>
-    <t>509-123-4567</t>
-  </si>
-  <si>
     <t>Service/Product  Name</t>
   </si>
   <si>
@@ -140,12 +138,6 @@
     <t>Service/Product ID #</t>
   </si>
   <si>
-    <t>1234-5678-9012-3456</t>
-  </si>
-  <si>
-    <t>TD-15Apr24</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -179,9 +171,6 @@
     <t>TD@contoso.com</t>
   </si>
   <si>
-    <t>509-123-4568</t>
-  </si>
-  <si>
     <t>Bill Han</t>
   </si>
   <si>
@@ -191,12 +180,6 @@
     <t>Web Service</t>
   </si>
   <si>
-    <t>1234-5368-9012-3657</t>
-  </si>
-  <si>
-    <t>TD-16Apr24</t>
-  </si>
-  <si>
     <t>Repair Completion Date</t>
   </si>
   <si>
@@ -213,9 +196,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S </t>
   </si>
   <si>
     <t>D</t>
@@ -481,21 +461,9 @@
     <t>S</t>
   </si>
   <si>
-    <t>Occurs when an entity denies performing a specific action.</t>
-  </si>
-  <si>
-    <t>Refers to unintentional exposure of sensitive information.</t>
-  </si>
-  <si>
     <t>MFA not enabled</t>
   </si>
   <si>
-    <t>Involves disrupting system availability or functionality.</t>
-  </si>
-  <si>
-    <t>Describes unauthorized escalation of user privileges.</t>
-  </si>
-  <si>
     <t>Browser URL can be altered to identify connection details</t>
   </si>
   <si>
@@ -503,6 +471,717 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Information Disclosure</t>
+  </si>
+  <si>
+    <t>Repudiation</t>
+  </si>
+  <si>
+    <t>Elevation of Privilege</t>
+  </si>
+  <si>
+    <t>Denial of Service</t>
+  </si>
+  <si>
+    <t>Spoofing</t>
+  </si>
+  <si>
+    <t>Amina Rahman</t>
+  </si>
+  <si>
+    <t>amina.rahman@example.com</t>
+  </si>
+  <si>
+    <t>555-1234</t>
+  </si>
+  <si>
+    <t>Cloud Storage Service</t>
+  </si>
+  <si>
+    <t>TD-01022024</t>
+  </si>
+  <si>
+    <t>SQL Injection</t>
+  </si>
+  <si>
+    <t>Use prepared statements with parameterized queries to prevent SQL injection.</t>
+  </si>
+  <si>
+    <t>TD-02022024</t>
+  </si>
+  <si>
+    <t>Cross-Site Scripting (XSS)</t>
+  </si>
+  <si>
+    <t>Implement content security policy (CSP) and sanitize user inputs.</t>
+  </si>
+  <si>
+    <t>TD-03022024</t>
+  </si>
+  <si>
+    <t>Brute Force Attack</t>
+  </si>
+  <si>
+    <t>Implement account lockout mechanisms and captcha.</t>
+  </si>
+  <si>
+    <t>Yuki Tanaka</t>
+  </si>
+  <si>
+    <t>yuki.tanaka@example.com</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>Web Application Firewall</t>
+  </si>
+  <si>
+    <t>Man-in-the-Middle Attack</t>
+  </si>
+  <si>
+    <t>Use TLS/SSL for all communications and validate certificates.</t>
+  </si>
+  <si>
+    <t>Buffer Overflow</t>
+  </si>
+  <si>
+    <t>Implement bounds checking and use safe libraries.</t>
+  </si>
+  <si>
+    <t>Insecure Deserialization</t>
+  </si>
+  <si>
+    <t>Tampering</t>
+  </si>
+  <si>
+    <t>Validate and sanitize untrusted data</t>
+  </si>
+  <si>
+    <t>Carlos Mendez</t>
+  </si>
+  <si>
+    <t>carlos.mendez@example.com</t>
+  </si>
+  <si>
+    <t>555-9101</t>
+  </si>
+  <si>
+    <t>Web Hosting Platform</t>
+  </si>
+  <si>
+    <t>Phishing</t>
+  </si>
+  <si>
+    <t>Use email filtering and user training.</t>
+  </si>
+  <si>
+    <t>Session Hijacking</t>
+  </si>
+  <si>
+    <t>Use secure cookies andimplement session regeneration after login.</t>
+  </si>
+  <si>
+    <t>Clickjacking</t>
+  </si>
+  <si>
+    <t>Use X-Frame-Options header to prevent framing by other sites.</t>
+  </si>
+  <si>
+    <t>Nina Patel</t>
+  </si>
+  <si>
+    <t>nina.patel@example.com</t>
+  </si>
+  <si>
+    <t>555-1122</t>
+  </si>
+  <si>
+    <t>Cloud Backup Service</t>
+  </si>
+  <si>
+    <t>Remote Code Execution</t>
+  </si>
+  <si>
+    <t>Regularly update and patch all software</t>
+  </si>
+  <si>
+    <t>Data Breach</t>
+  </si>
+  <si>
+    <t>Implement strong encryption for data at rest and in transit.</t>
+  </si>
+  <si>
+    <t>DDoS Attack</t>
+  </si>
+  <si>
+    <t>Implement traffic filtering and rate limiting.</t>
+  </si>
+  <si>
+    <t>Luca Rossi</t>
+  </si>
+  <si>
+    <t>luca.rossi@example.com</t>
+  </si>
+  <si>
+    <t>555-3344</t>
+  </si>
+  <si>
+    <t>Email Hosting Service</t>
+  </si>
+  <si>
+    <t>Credential Stuffing</t>
+  </si>
+  <si>
+    <t>Implement multi-factor authentication and monitor for unusual login activity.</t>
+  </si>
+  <si>
+    <t>Privilege Escalation</t>
+  </si>
+  <si>
+    <t>Use least privilege principle and regularly review permissions.</t>
+  </si>
+  <si>
+    <t>Insecure Direct Object References (IDOR)</t>
+  </si>
+  <si>
+    <t>Implement access control checks for all object requests.</t>
+  </si>
+  <si>
+    <t>Isabella Schmidt</t>
+  </si>
+  <si>
+    <t>isabella.schmidt@example.com</t>
+  </si>
+  <si>
+    <t>555-7788</t>
+  </si>
+  <si>
+    <t>Online Payment System</t>
+  </si>
+  <si>
+    <t>Directory Traversal</t>
+  </si>
+  <si>
+    <t>Validate and sanitize user inputs to prevent unauthorized file access.</t>
+  </si>
+  <si>
+    <t>CSRF</t>
+  </si>
+  <si>
+    <t>Use anti-CSRF tokens and validate referer headers.</t>
+  </si>
+  <si>
+    <t>Unsecured API</t>
+  </si>
+  <si>
+    <t>Use API keys and OAuth for secure access control.</t>
+  </si>
+  <si>
+    <t>Thiago Oliveira</t>
+  </si>
+  <si>
+    <t>thiago.oliveira@example.com</t>
+  </si>
+  <si>
+    <t>555-8899</t>
+  </si>
+  <si>
+    <t>Mobile Banking App</t>
+  </si>
+  <si>
+    <t>Weak Password Policy</t>
+  </si>
+  <si>
+    <t>Enforce strong</t>
+  </si>
+  <si>
+    <t>Logging and Monitoring</t>
+  </si>
+  <si>
+    <t>Implement comprehensive logging and real-time monitoring.</t>
+  </si>
+  <si>
+    <t>Insecure Storage</t>
+  </si>
+  <si>
+    <t>Encrypt sensitive data at rest and use secure storage mechanisms.</t>
+  </si>
+  <si>
+    <t>Elena Petrova</t>
+  </si>
+  <si>
+    <t>elena.petrova@example.com</t>
+  </si>
+  <si>
+    <t>555-9900</t>
+  </si>
+  <si>
+    <t>Social Media Platform</t>
+  </si>
+  <si>
+    <t>Mass Assignment</t>
+  </si>
+  <si>
+    <t>Implement proper input validation and use a whitelist for attribute assignment.</t>
+  </si>
+  <si>
+    <t>Insufficient Logging</t>
+  </si>
+  <si>
+    <t>Enhance logging mechanisms and ensure logs are tamper-proof.</t>
+  </si>
+  <si>
+    <t>Insecure HTTP Headers</t>
+  </si>
+  <si>
+    <t>Use security headers like Content-Security-Policy and X-Content-Type-Options.</t>
+  </si>
+  <si>
+    <t>Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>mohamed.hassan@example.com</t>
+  </si>
+  <si>
+    <t>555-6677</t>
+  </si>
+  <si>
+    <t>Online Learning Platform</t>
+  </si>
+  <si>
+    <t>Improper Input Validation</t>
+  </si>
+  <si>
+    <t>Implement strong input validation and sanitization.</t>
+  </si>
+  <si>
+    <t>Unencrypted Data Transmission</t>
+  </si>
+  <si>
+    <t>Use TLS/SSL for all data transmissions.</t>
+  </si>
+  <si>
+    <t>Sophia Kim</t>
+  </si>
+  <si>
+    <t>sophia.kim@example.com</t>
+  </si>
+  <si>
+    <t>555-4455</t>
+  </si>
+  <si>
+    <t>File Sharing Service</t>
+  </si>
+  <si>
+    <t>XML External Entity (XXE)</t>
+  </si>
+  <si>
+    <t>Disable external entity processing and use less complex data formats.</t>
+  </si>
+  <si>
+    <t>Security Misconfiguration</t>
+  </si>
+  <si>
+    <t>Implement and maintain proper security configurations.</t>
+  </si>
+  <si>
+    <t>Sensitive Data Exposure</t>
+  </si>
+  <si>
+    <t>Encrypt sensitive data and ensure secure access controls.</t>
+  </si>
+  <si>
+    <t>Ivan Ivanov</t>
+  </si>
+  <si>
+    <t>ivan.ivanov@example.com</t>
+  </si>
+  <si>
+    <t>555-5566</t>
+  </si>
+  <si>
+    <t>Content Management System</t>
+  </si>
+  <si>
+    <t>Insufficient Cryptography</t>
+  </si>
+  <si>
+    <t>Use strong cryptographic algorithms and proper key management.</t>
+  </si>
+  <si>
+    <t>Insecure Authentication</t>
+  </si>
+  <si>
+    <t>Implement multi-factor authentication and protect authentication tokens.</t>
+  </si>
+  <si>
+    <t>Unrestricted File Upload</t>
+  </si>
+  <si>
+    <t>Implement file type validation and limit uploaded file size.</t>
+  </si>
+  <si>
+    <t>Linh Nguyen</t>
+  </si>
+  <si>
+    <t>linh.nguyen@example.com</t>
+  </si>
+  <si>
+    <t>555-2233</t>
+  </si>
+  <si>
+    <t>Event Management System</t>
+  </si>
+  <si>
+    <t>Unpatched Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Regularly update and patch software vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Improper Access Control</t>
+  </si>
+  <si>
+    <t>Implement role-based access controls and permissions.</t>
+  </si>
+  <si>
+    <t>Unvalidated Redirects and Forwards</t>
+  </si>
+  <si>
+    <t>Validate and restrict URL input to prevent malicious redirects.</t>
+  </si>
+  <si>
+    <t>Fatima Al-Mansour</t>
+  </si>
+  <si>
+    <t>fatima.al-mansour@example.com</t>
+  </si>
+  <si>
+    <t>Customer Relationship Management</t>
+  </si>
+  <si>
+    <t>Insufficient Session Expiration</t>
+  </si>
+  <si>
+    <t>Implement session timeout and re-authentication mechanisms.</t>
+  </si>
+  <si>
+    <t>Improper Error Handling</t>
+  </si>
+  <si>
+    <t>Avoid exposing detailed error messages to users.</t>
+  </si>
+  <si>
+    <t>Ensure detailed and secure logging of all user and system actions.</t>
+  </si>
+  <si>
+    <t>Rajesh Kumar</t>
+  </si>
+  <si>
+    <t>rajesh.kumar@example.com</t>
+  </si>
+  <si>
+    <t>Supply Chain Management</t>
+  </si>
+  <si>
+    <t>API Abuse</t>
+  </si>
+  <si>
+    <t>Implement rate limiting and access controls for APIs.</t>
+  </si>
+  <si>
+    <t>Insecure Communications</t>
+  </si>
+  <si>
+    <t>Enforce HTTPS and use secure protocols for all data transfers.</t>
+  </si>
+  <si>
+    <t>Insufficient Transport Layer Protection</t>
+  </si>
+  <si>
+    <t>Ensure proper configuration of TLS/SSL and use strong ciphers.</t>
+  </si>
+  <si>
+    <t>Min-Jae Park</t>
+  </si>
+  <si>
+    <t>min-jae.park@example.com</t>
+  </si>
+  <si>
+    <t>Healthcare Management System</t>
+  </si>
+  <si>
+    <t>Insecure Password Storage</t>
+  </si>
+  <si>
+    <t>Store passwords using strong hashing algorithms like bcrypt or Argon2.</t>
+  </si>
+  <si>
+    <t>Unsecured Configuration Files</t>
+  </si>
+  <si>
+    <t>Encrypt sensitive configuration files and manage access permissions.</t>
+  </si>
+  <si>
+    <t>Insufficient Authentication Checks</t>
+  </si>
+  <si>
+    <t>Implement multi-factor authentication and validate user roles.</t>
+  </si>
+  <si>
+    <t>Adriana Silva</t>
+  </si>
+  <si>
+    <t>adriana.silva@example.com</t>
+  </si>
+  <si>
+    <t>Video Conferencing Tool</t>
+  </si>
+  <si>
+    <t>Unrestricted URL Access</t>
+  </si>
+  <si>
+    <t>Implement URL validation and authentication checks.</t>
+  </si>
+  <si>
+    <t>Client-Side Validation Only</t>
+  </si>
+  <si>
+    <t>Implement server-side validation for all user inputs.</t>
+  </si>
+  <si>
+    <t>Default Credentials</t>
+  </si>
+  <si>
+    <t>Change default credentials and enforce password policies.</t>
+  </si>
+  <si>
+    <t>David Carter</t>
+  </si>
+  <si>
+    <t>david.carter@example.com</t>
+  </si>
+  <si>
+    <t>Travel Booking Platform</t>
+  </si>
+  <si>
+    <t>Insufficient API Rate Limiting</t>
+  </si>
+  <si>
+    <t>Implement rate limiting and threshold alerts for APIs.</t>
+  </si>
+  <si>
+    <t>Verbose Error Messages</t>
+  </si>
+  <si>
+    <t>Limit information in error messages to avoid exposing system details.</t>
+  </si>
+  <si>
+    <t>Unvalidated User Inputs</t>
+  </si>
+  <si>
+    <t>Sanitize and validate all user inputs.</t>
+  </si>
+  <si>
+    <t>Maria Garcia</t>
+  </si>
+  <si>
+    <t>maria.garcia@example.com</t>
+  </si>
+  <si>
+    <t>E-Commerce Platform</t>
+  </si>
+  <si>
+    <t>Unencrypted Sensitive Data</t>
+  </si>
+  <si>
+    <t>Encrypt all sensitive data both in transit and at rest.</t>
+  </si>
+  <si>
+    <t>Improper File Permissions</t>
+  </si>
+  <si>
+    <t>Review and enforce proper file permissions and access controls.</t>
+  </si>
+  <si>
+    <t>Weak Encryption</t>
+  </si>
+  <si>
+    <t>Use strong and up-to-date encryption algorithms.</t>
+  </si>
+  <si>
+    <t>Ahmed Khan</t>
+  </si>
+  <si>
+    <t>ahmed.khan@example.com</t>
+  </si>
+  <si>
+    <t>Online Job Portal</t>
+  </si>
+  <si>
+    <t>Insecure Third-Party Libraries</t>
+  </si>
+  <si>
+    <t>Regularly update and monitor third-party libraries for vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Exposed Debug Information</t>
+  </si>
+  <si>
+    <t>Disable debug and development information in production environments.</t>
+  </si>
+  <si>
+    <t>Improper Session Handling</t>
+  </si>
+  <si>
+    <t>Ensure proper session management and implement secure cookie attributes.</t>
+  </si>
+  <si>
+    <t>Chloe Martin</t>
+  </si>
+  <si>
+    <t>chloe.martin@example.com</t>
+  </si>
+  <si>
+    <t>Online Survey Tool</t>
+  </si>
+  <si>
+    <t>Cross-Site Request Forgery (CSRF)</t>
+  </si>
+  <si>
+    <t>Implement anti-CSRF tokens and validate origin headers.</t>
+  </si>
+  <si>
+    <t>Unsecured Cookies</t>
+  </si>
+  <si>
+    <t>Use secure cookie attributes like HttpOnly and Secure.</t>
+  </si>
+  <si>
+    <t>Ensure error messages do not expose sensitive information.</t>
+  </si>
+  <si>
+    <t>Aiden Thompson</t>
+  </si>
+  <si>
+    <t>aiden.thompson@example.com</t>
+  </si>
+  <si>
+    <t>Remote Desktop Tool</t>
+  </si>
+  <si>
+    <t>Weak Session Management</t>
+  </si>
+  <si>
+    <t>Implement robust session management practices</t>
+  </si>
+  <si>
+    <t>Insecure WebSockets</t>
+  </si>
+  <si>
+    <t>Ensure proper WebSocket configuration and encryption.</t>
+  </si>
+  <si>
+    <t>Unrestricted Uploads</t>
+  </si>
+  <si>
+    <t>Implement file type and size restrictions</t>
+  </si>
+  <si>
+    <t>Hana Lee</t>
+  </si>
+  <si>
+    <t>h.lee@example.com</t>
+  </si>
+  <si>
+    <t>Online Collaboration Platform</t>
+  </si>
+  <si>
+    <t>Insufficient Network Segmentation</t>
+  </si>
+  <si>
+    <t>Implement network segmentation and access control lists to limit damage from compromised systems.</t>
+  </si>
+  <si>
+    <t>Missing Security Headers</t>
+  </si>
+  <si>
+    <t>Use appropriate security headers like X-XSS-Protection and X-Content-Type-Options.</t>
+  </si>
+  <si>
+    <t>Validate and sanitize all URL inputs and restrict URL access based on user roles.</t>
+  </si>
+  <si>
+    <t>Dmitry Ivanov</t>
+  </si>
+  <si>
+    <t>d.ivanov@example.com</t>
+  </si>
+  <si>
+    <t>Project Management Software</t>
+  </si>
+  <si>
+    <t>Improper Certificate Validation</t>
+  </si>
+  <si>
+    <t>Implement strict certificate validation and ensure certificates are up-to-date.</t>
+  </si>
+  <si>
+    <t>Insecure Default Configuration</t>
+  </si>
+  <si>
+    <t>Change default configurations to secure settings and enforce secure defaults.</t>
+  </si>
+  <si>
+    <t>Implement the principle of least privilege and regularly review access controls.</t>
+  </si>
+  <si>
+    <t>Sofia Rossi</t>
+  </si>
+  <si>
+    <t>sofia.rossi@example.com</t>
+  </si>
+  <si>
+    <t>Online Forum</t>
+  </si>
+  <si>
+    <t>Insufficient Logging and Monitoring</t>
+  </si>
+  <si>
+    <t>Implement comprehensive logging and monitoring with alerting for suspicious activities.</t>
+  </si>
+  <si>
+    <t>Ensure detailed errors are logged but generic messages are shown to users.</t>
+  </si>
+  <si>
+    <t>TD-15042024</t>
+  </si>
+  <si>
+    <t>TD-16042024</t>
+  </si>
+  <si>
+    <t>123-4568</t>
+  </si>
+  <si>
+    <t>123-4565</t>
+  </si>
+  <si>
+    <t>123-4566</t>
+  </si>
+  <si>
+    <t>123-4567</t>
+  </si>
+  <si>
+    <t>123-4562</t>
+  </si>
+  <si>
+    <t>123-4563</t>
+  </si>
+  <si>
+    <t>123-4564</t>
   </si>
 </sst>
 </file>
@@ -607,7 +1286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -627,6 +1306,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1049,119 +1730,119 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="145.453125" customWidth="1"/>
+    <col min="1" max="1" width="145.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="279.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1174,23 +1855,23 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.54296875" customWidth="1"/>
-    <col min="26" max="26" width="17.7265625" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5546875" customWidth="1"/>
+    <col min="26" max="26" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1261,15 +1942,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2">
         <v>45324</v>
@@ -1293,15 +1974,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2">
         <v>45324</v>
@@ -1325,15 +2006,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2">
         <v>45325</v>
@@ -1380,33 +2061,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB357F1-E8D6-4D00-AA6A-ED4E1697B4A7}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
-    <col min="10" max="10" width="47.7265625" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6328125" customWidth="1"/>
-    <col min="14" max="14" width="51.90625" customWidth="1"/>
-    <col min="15" max="15" width="42.36328125" customWidth="1"/>
-    <col min="16" max="16" width="36.81640625" customWidth="1"/>
-    <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="47.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.33203125" customWidth="1"/>
+    <col min="15" max="15" width="36.77734375" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -1425,9 +2105,8 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1437,14 +2116,14 @@
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>19</v>
@@ -1456,320 +2135,2996 @@
         <v>21</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2">
+        <v>339</v>
+      </c>
+      <c r="D3" s="12">
         <v>45397</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2">
+        <v>340</v>
+      </c>
+      <c r="D4" s="12">
         <v>45397</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="12">
+        <v>45397</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="12">
+        <v>45398</v>
+      </c>
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45397</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="12">
+        <v>45398</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="12">
+        <v>45398</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="12">
+        <v>45406</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>110</v>
       </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
         <v>108</v>
       </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45398</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
         <v>37</v>
       </c>
-      <c r="J6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45398</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="M15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
         <v>37</v>
       </c>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45398</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="M18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s">
         <v>37</v>
       </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="M21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" t="s">
         <v>109</v>
       </c>
-      <c r="O8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45398</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" t="s">
+        <v>105</v>
+      </c>
+      <c r="N26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
         <v>109</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="N27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
         <v>114</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" t="s">
+        <v>107</v>
+      </c>
+      <c r="N28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>182</v>
+      </c>
+      <c r="K30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" t="s">
+        <v>105</v>
+      </c>
+      <c r="N30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" t="s">
+        <v>132</v>
+      </c>
+      <c r="N31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" t="s">
+        <v>106</v>
+      </c>
+      <c r="N32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" t="s">
+        <v>105</v>
+      </c>
+      <c r="N33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>198</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" t="s">
+        <v>132</v>
+      </c>
+      <c r="N34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E36" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" t="s">
+        <v>132</v>
+      </c>
+      <c r="N37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>216</v>
+      </c>
+      <c r="K39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" t="s">
+        <v>105</v>
+      </c>
+      <c r="N39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
+        <v>218</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" t="s">
+        <v>109</v>
+      </c>
+      <c r="N40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s">
+        <v>220</v>
+      </c>
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" t="s">
+        <v>107</v>
+      </c>
+      <c r="N41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s">
+        <v>226</v>
+      </c>
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" t="s">
+        <v>107</v>
+      </c>
+      <c r="N42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E43" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s">
+        <v>228</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" t="s">
+        <v>107</v>
+      </c>
+      <c r="N43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" t="s">
+        <v>230</v>
+      </c>
+      <c r="K44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" t="s">
+        <v>105</v>
+      </c>
+      <c r="N44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E45" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" t="s">
+        <v>235</v>
+      </c>
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" t="s">
+        <v>105</v>
+      </c>
+      <c r="N45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
+        <v>237</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="M46" t="s">
+        <v>105</v>
+      </c>
+      <c r="N46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>190</v>
+      </c>
+      <c r="K47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" t="s">
+        <v>106</v>
+      </c>
+      <c r="N47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E48" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="s">
+        <v>243</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
+      <c r="M48" t="s">
+        <v>107</v>
+      </c>
+      <c r="N48" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E49" t="s">
+        <v>242</v>
+      </c>
+      <c r="F49">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
+        <v>245</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="M49" t="s">
+        <v>105</v>
+      </c>
+      <c r="N49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E50" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s">
+        <v>247</v>
+      </c>
+      <c r="K50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E51" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" t="s">
+        <v>252</v>
+      </c>
+      <c r="K51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" t="s">
+        <v>105</v>
+      </c>
+      <c r="N51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E52" t="s">
+        <v>251</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>254</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="M52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E53" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
+        <v>256</v>
+      </c>
+      <c r="K53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" t="s">
+        <v>107</v>
+      </c>
+      <c r="N53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E54" t="s">
+        <v>260</v>
+      </c>
+      <c r="F54">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s">
+        <v>261</v>
+      </c>
+      <c r="K54" t="s">
+        <v>39</v>
+      </c>
+      <c r="M54" t="s">
+        <v>109</v>
+      </c>
+      <c r="N54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E55" t="s">
+        <v>260</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" t="s">
+        <v>263</v>
+      </c>
+      <c r="K55" t="s">
+        <v>38</v>
+      </c>
+      <c r="M55" t="s">
+        <v>107</v>
+      </c>
+      <c r="N55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E56" t="s">
+        <v>260</v>
+      </c>
+      <c r="F56">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" t="s">
+        <v>265</v>
+      </c>
+      <c r="K56" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56" t="s">
+        <v>105</v>
+      </c>
+      <c r="N56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E57" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" t="s">
+        <v>270</v>
+      </c>
+      <c r="K57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57" t="s">
+        <v>108</v>
+      </c>
+      <c r="N57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E58" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" t="s">
+        <v>272</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+      <c r="M58" t="s">
+        <v>105</v>
+      </c>
+      <c r="N58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E59" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>274</v>
+      </c>
+      <c r="K59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M59" t="s">
+        <v>105</v>
+      </c>
+      <c r="N59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>276</v>
+      </c>
+      <c r="B60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E60" t="s">
+        <v>278</v>
+      </c>
+      <c r="F60">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" t="s">
+        <v>279</v>
+      </c>
+      <c r="K60" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" t="s">
+        <v>105</v>
+      </c>
+      <c r="N60" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E61" t="s">
+        <v>278</v>
+      </c>
+      <c r="F61">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
+        <v>281</v>
+      </c>
+      <c r="K61" t="s">
+        <v>38</v>
+      </c>
+      <c r="M61" t="s">
+        <v>107</v>
+      </c>
+      <c r="N61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E62" t="s">
+        <v>278</v>
+      </c>
+      <c r="F62">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
+        <v>283</v>
+      </c>
+      <c r="K62" t="s">
+        <v>37</v>
+      </c>
+      <c r="M62" t="s">
+        <v>105</v>
+      </c>
+      <c r="N62" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E63" t="s">
+        <v>287</v>
+      </c>
+      <c r="F63">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>288</v>
+      </c>
+      <c r="K63" t="s">
+        <v>39</v>
+      </c>
+      <c r="M63" t="s">
+        <v>107</v>
+      </c>
+      <c r="N63" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E64" t="s">
+        <v>287</v>
+      </c>
+      <c r="F64">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>117</v>
+      </c>
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s">
+        <v>290</v>
+      </c>
+      <c r="K64" t="s">
+        <v>38</v>
+      </c>
+      <c r="M64" t="s">
+        <v>105</v>
+      </c>
+      <c r="N64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B65" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E65" t="s">
+        <v>287</v>
+      </c>
+      <c r="F65">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>120</v>
+      </c>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" t="s">
+        <v>292</v>
+      </c>
+      <c r="K65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65" t="s">
+        <v>105</v>
+      </c>
+      <c r="N65" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>294</v>
+      </c>
+      <c r="B66" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E66" t="s">
+        <v>296</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" t="s">
+        <v>297</v>
+      </c>
+      <c r="K66" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" t="s">
+        <v>109</v>
+      </c>
+      <c r="N66" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E67" t="s">
+        <v>296</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>117</v>
+      </c>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" t="s">
+        <v>299</v>
+      </c>
+      <c r="K67" t="s">
+        <v>38</v>
+      </c>
+      <c r="M67" t="s">
+        <v>105</v>
+      </c>
+      <c r="N67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>294</v>
+      </c>
+      <c r="B68" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E68" t="s">
+        <v>296</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" t="s">
+        <v>237</v>
+      </c>
+      <c r="K68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M68" t="s">
+        <v>105</v>
+      </c>
+      <c r="N68" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E69" t="s">
+        <v>304</v>
+      </c>
+      <c r="F69">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" t="s">
+        <v>305</v>
+      </c>
+      <c r="K69" t="s">
+        <v>39</v>
+      </c>
+      <c r="M69" t="s">
+        <v>107</v>
+      </c>
+      <c r="N69" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E70" t="s">
+        <v>304</v>
+      </c>
+      <c r="F70">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>117</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s">
+        <v>307</v>
+      </c>
+      <c r="K70" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" t="s">
+        <v>105</v>
+      </c>
+      <c r="N70" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E71" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>120</v>
+      </c>
+      <c r="H71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>309</v>
+      </c>
+      <c r="K71" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71" t="s">
+        <v>107</v>
+      </c>
+      <c r="N71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" t="s">
+        <v>312</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E72" t="s">
+        <v>313</v>
+      </c>
+      <c r="F72">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" t="s">
+        <v>314</v>
+      </c>
+      <c r="K72" t="s">
+        <v>39</v>
+      </c>
+      <c r="M72" t="s">
+        <v>108</v>
+      </c>
+      <c r="N72" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>311</v>
+      </c>
+      <c r="B73" t="s">
+        <v>312</v>
+      </c>
+      <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E73" t="s">
+        <v>313</v>
+      </c>
+      <c r="F73">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>117</v>
+      </c>
+      <c r="H73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
+        <v>316</v>
+      </c>
+      <c r="K73" t="s">
+        <v>38</v>
+      </c>
+      <c r="M73" t="s">
+        <v>105</v>
+      </c>
+      <c r="N73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E74" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>120</v>
+      </c>
+      <c r="H74" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" t="s">
+        <v>261</v>
+      </c>
+      <c r="K74" t="s">
+        <v>37</v>
+      </c>
+      <c r="M74" t="s">
+        <v>109</v>
+      </c>
+      <c r="N74" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>319</v>
+      </c>
+      <c r="B75" t="s">
+        <v>320</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E75" t="s">
+        <v>321</v>
+      </c>
+      <c r="F75">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>114</v>
+      </c>
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s">
+        <v>322</v>
+      </c>
+      <c r="K75" t="s">
+        <v>39</v>
+      </c>
+      <c r="M75" t="s">
+        <v>109</v>
+      </c>
+      <c r="N75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>319</v>
+      </c>
+      <c r="B76" t="s">
+        <v>320</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E76" t="s">
+        <v>321</v>
+      </c>
+      <c r="F76">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>117</v>
+      </c>
+      <c r="H76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" t="s">
+        <v>324</v>
+      </c>
+      <c r="K76" t="s">
+        <v>38</v>
+      </c>
+      <c r="M76" t="s">
+        <v>107</v>
+      </c>
+      <c r="N76" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>319</v>
+      </c>
+      <c r="B77" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E77" t="s">
+        <v>321</v>
+      </c>
+      <c r="F77">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>120</v>
+      </c>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s">
+        <v>160</v>
+      </c>
+      <c r="K77" t="s">
+        <v>37</v>
+      </c>
+      <c r="M77" t="s">
+        <v>107</v>
+      </c>
+      <c r="N77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>327</v>
+      </c>
+      <c r="B78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="12">
+        <v>45293</v>
+      </c>
+      <c r="E78" t="s">
+        <v>329</v>
+      </c>
+      <c r="F78">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s">
+        <v>330</v>
+      </c>
+      <c r="K78" t="s">
+        <v>39</v>
+      </c>
+      <c r="M78" t="s">
+        <v>106</v>
+      </c>
+      <c r="N78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>327</v>
+      </c>
+      <c r="B79" t="s">
+        <v>328</v>
+      </c>
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="12">
+        <v>45324</v>
+      </c>
+      <c r="E79" t="s">
+        <v>329</v>
+      </c>
+      <c r="F79">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>117</v>
+      </c>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>237</v>
+      </c>
+      <c r="K79" t="s">
+        <v>38</v>
+      </c>
+      <c r="M79" t="s">
+        <v>105</v>
+      </c>
+      <c r="N79" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>327</v>
+      </c>
+      <c r="B80" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="12">
+        <v>45353</v>
+      </c>
+      <c r="E80" t="s">
+        <v>329</v>
+      </c>
+      <c r="F80">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s">
+        <v>120</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" t="s">
+        <v>142</v>
+      </c>
+      <c r="K80" t="s">
+        <v>37</v>
+      </c>
+      <c r="M80" t="s">
+        <v>106</v>
+      </c>
+      <c r="N80" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="G1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1782,6 +5137,7 @@
     <hyperlink ref="B9" r:id="rId7" xr:uid="{0FBF7447-5AC6-4FF2-AAEB-3D0DC48F817A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -1804,6 +5160,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09C9F54-5729-4828-A6B8-EBD7897A900F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85387C4A-CFE3-4C8A-AE7E-D35CDE85D013}">
   <dimension ref="B1:I7"/>
   <sheetViews>
@@ -1811,17 +5180,17 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" customWidth="1"/>
-    <col min="12" max="12" width="24.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -1829,97 +5198,97 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1936,5 +5305,6 @@
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{87ba5c36-b7cf-4793-bbc2-bd5b3a9f95ca}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>